--- a/spliced/struggle/2023-04-11_10-09-09/data_selected.xlsx
+++ b/spliced/struggle/2023-04-11_10-09-09/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.06989622116088862</v>
+        <v>-0.01545035839080799</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2621099762618542</v>
+        <v>0.2315296996384856</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03679747134447098</v>
+        <v>-0.5798605158925052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0122173046693205</v>
+        <v>-0.0303905457258224</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0598647929728031</v>
+        <v>-0.02122756652534</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.067195177078247</v>
+        <v>-0.038026362657547</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1602854728698729</v>
+        <v>0.06989622116088862</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2304907962679849</v>
+        <v>-0.2621099762618542</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.932947013527152</v>
+        <v>0.03679747134447098</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1317941695451736</v>
+        <v>0.0122173046693205</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.223882108926773</v>
+        <v>-0.0598647929728031</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0047342055477201</v>
+        <v>-0.067195177078247</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.401312828063962</v>
+        <v>0.1602854728698729</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6429092288017235</v>
+        <v>0.2304907962679849</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.608263850212088</v>
+        <v>-0.932947013527152</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5534439086914062</v>
+        <v>-0.1317941695451736</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.408488988876343</v>
+        <v>-0.223882108926773</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1953241676092147</v>
+        <v>-0.0047342055477201</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.035469830036161</v>
+        <v>1.401312828063962</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.478700906038283</v>
+        <v>-0.6429092288017235</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.709699153900139</v>
+        <v>-4.608263850212088</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5908594131469727</v>
+        <v>-0.5534439086914062</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.143346309661865</v>
+        <v>-2.408488988876343</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8623890280723572</v>
+        <v>-0.1953241676092147</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4589872062206247</v>
+        <v>2.035469830036161</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1242832839488965</v>
+        <v>-1.478700906038283</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.642685413360593</v>
+        <v>-5.709699153900139</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3294090926647186</v>
+        <v>-0.5908594131469727</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.587306261062622</v>
+        <v>-4.143346309661865</v>
       </c>
       <c r="H6" t="n">
-        <v>1.745547413825989</v>
+        <v>0.8623890280723572</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.821219787001614</v>
+        <v>0.4589872062206247</v>
       </c>
       <c r="D7" t="n">
-        <v>1.541860699653622</v>
+        <v>-0.1242832839488965</v>
       </c>
       <c r="E7" t="n">
-        <v>1.125372886657715</v>
+        <v>-1.642685413360593</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.008996725082398</v>
+        <v>-0.3294090926647186</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.703842401504517</v>
+        <v>-3.587306261062622</v>
       </c>
       <c r="H7" t="n">
-        <v>1.318247199058533</v>
+        <v>1.745547413825989</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-4.537274837493896</v>
+        <v>-1.821219787001614</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.381650447845459</v>
+        <v>1.541860699653622</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8837652206420898</v>
+        <v>1.125372886657715</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1534798890352249</v>
+        <v>-1.008996725082398</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0916297882795333</v>
+        <v>-2.703842401504517</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2032654136419296</v>
+        <v>1.318247199058533</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-6.140988111495973</v>
+        <v>-4.537274837493896</v>
       </c>
       <c r="D9" t="n">
-        <v>2.625270426273349</v>
+        <v>-0.381650447845459</v>
       </c>
       <c r="E9" t="n">
-        <v>3.428681612014774</v>
+        <v>0.8837652206420898</v>
       </c>
       <c r="F9" t="n">
-        <v>1.313818454742432</v>
+        <v>0.1534798890352249</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833332061767578</v>
+        <v>-0.0916297882795333</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.68843150138855</v>
+        <v>0.2032654136419296</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-6.243353843688965</v>
+        <v>-6.140988111495973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4006794318556786</v>
+        <v>2.625270426273349</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.078256130218506</v>
+        <v>3.428681612014774</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2997821271419525</v>
+        <v>1.313818454742432</v>
       </c>
       <c r="G10" t="n">
-        <v>5.671730995178223</v>
+        <v>3.833332061767578</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.668731093406677</v>
+        <v>-1.68843150138855</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.525731027126295</v>
+        <v>-6.243353843688965</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.101333875209092</v>
+        <v>0.4006794318556786</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.408103108406068</v>
+        <v>-2.078256130218506</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6543893814086914</v>
+        <v>0.2997821271419525</v>
       </c>
       <c r="G11" t="n">
-        <v>4.36127233505249</v>
+        <v>5.671730995178223</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.7669413089752197</v>
+        <v>-1.668731093406677</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.08496618270874</v>
+        <v>1.525731027126295</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.613636314868927</v>
+        <v>-1.101333875209092</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.943879842758179</v>
+        <v>-3.408103108406068</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5648976564407349</v>
+        <v>-0.6543893814086914</v>
       </c>
       <c r="G12" t="n">
-        <v>2.72186279296875</v>
+        <v>4.36127233505249</v>
       </c>
       <c r="H12" t="n">
-        <v>1.022893905639648</v>
+        <v>-0.7669413089752197</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.373238265514372</v>
+        <v>2.08496618270874</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1506620794534765</v>
+        <v>-1.613636314868927</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.15161240100861</v>
+        <v>-2.943879842758179</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.7005097270011902</v>
+        <v>-0.5648976564407349</v>
       </c>
       <c r="G13" t="n">
-        <v>1.526399493217468</v>
+        <v>2.72186279296875</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2272418737411499</v>
+        <v>1.022893905639648</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-3.501610040664678</v>
+        <v>-2.373238265514372</v>
       </c>
       <c r="D14" t="n">
-        <v>2.79044055938721</v>
+        <v>-0.1506620794534765</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.906912446022055</v>
+        <v>-2.15161240100861</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0536034256219863</v>
+        <v>-0.7005097270011902</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.495856285095215</v>
+        <v>1.526399493217468</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2338086664676666</v>
+        <v>0.2272418737411499</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.058286607265482</v>
+        <v>-3.501610040664678</v>
       </c>
       <c r="D15" t="n">
-        <v>2.954759478569038</v>
+        <v>2.79044055938721</v>
       </c>
       <c r="E15" t="n">
-        <v>-7.582780838012708</v>
+        <v>-2.906912446022055</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1302670091390609</v>
+        <v>0.0536034256219863</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.946773052215576</v>
+        <v>-1.495856285095215</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.086271166801453</v>
+        <v>-0.2338086664676666</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.394027709960937</v>
+        <v>-4.058286607265482</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.486701488494873</v>
+        <v>2.954759478569038</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1956815719604492</v>
+        <v>-7.582780838012708</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3718642294406891</v>
+        <v>0.1302670091390609</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.293160915374756</v>
+        <v>-5.946773052215576</v>
       </c>
       <c r="H16" t="n">
-        <v>1.783268332481384</v>
+        <v>-1.086271166801453</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.034749180078514</v>
+        <v>2.394027709960937</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.211341693997383</v>
+        <v>-1.486701488494873</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.07141649723053026</v>
+        <v>0.1956815719604492</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1963931769132614</v>
+        <v>-0.3718642294406891</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.29804801940918</v>
+        <v>-4.293160915374756</v>
       </c>
       <c r="H17" t="n">
-        <v>1.745852828025818</v>
+        <v>1.783268332481384</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-4.999244511127475</v>
+        <v>-2.034749180078514</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.394761115312575</v>
+        <v>-1.211341693997383</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1581084728240968</v>
+        <v>-0.07141649723053026</v>
       </c>
       <c r="F18" t="n">
-        <v>0.204487144947052</v>
+        <v>0.1963931769132614</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.893821477890014</v>
+        <v>-4.29804801940918</v>
       </c>
       <c r="H18" t="n">
-        <v>1.158658623695374</v>
+        <v>1.745852828025818</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-6.522920310497289</v>
+        <v>-4.999244511127475</v>
       </c>
       <c r="D19" t="n">
-        <v>0.375426143407825</v>
+        <v>-0.394761115312575</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1347707509994504</v>
+        <v>-0.1581084728240968</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1171334087848663</v>
+        <v>0.204487144947052</v>
       </c>
       <c r="G19" t="n">
-        <v>0.94042706489563</v>
+        <v>-2.893821477890014</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3061962127685547</v>
+        <v>1.158658623695374</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-6.107214450836182</v>
+        <v>-6.522920310497289</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1423146724700928</v>
+        <v>0.375426143407825</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9927992820739744</v>
+        <v>-0.1347707509994504</v>
       </c>
       <c r="F20" t="n">
-        <v>0.337044894695282</v>
+        <v>0.1171334087848663</v>
       </c>
       <c r="G20" t="n">
-        <v>3.794236660003662</v>
+        <v>0.94042706489563</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.184467673301697</v>
+        <v>-0.3061962127685547</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-6.107214450836182</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.1423146724700928</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9927992820739744</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.337044894695282</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3.794236660003662</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1.184467673301697</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>-4.145634770393367</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-0.62879066169262</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>1.90212270617485</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>-0.3572034537792206</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>5.656154155731201</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>-1.049466490745544</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.618811368942268</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.6589505374431646</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2403407692909387</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0070249503478407</v>
+      </c>
+      <c r="G23" t="n">
+        <v>4.270253658294678</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.0296269636601209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.08240008354186718</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4783504903316493</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-3.809414207935333</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.4137084782123565</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.936276435852051</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2823724448680877</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.95973014831543</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9762580394744872</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-4.069071769714356</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0429132841527462</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.122159481048584</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.1867720484733581</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-3.901577949523926</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.771272063255311</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.484678864479062</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.06475171446800231</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1.842216849327088</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.6108652353286743</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.957046031951897</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.6577051877975557</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-7.9572014808655</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0862847194075584</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-5.713422775268555</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.346194267272949</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0412573218345611</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-3.739429324865336</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.584903955459609</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1818851232528686</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4.851491928100586</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.392772793769836</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.076164960861222</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.966795355081547</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.5832877159118695</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.3181080818176269</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-3.869678497314453</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9886853694915771</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-5.426012933254244</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.3007338047027568</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.185311913490301</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1050688251852989</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.216677188873291</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.3729332387447357</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-6.20224690437317</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8901370018720657</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.72858691215514</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1996002197265625</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.434922456741333</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.2237294018268585</v>
       </c>
     </row>
   </sheetData>
